--- a/Federated Electric Market/result_excel/test_loss/frac/frac=0.01.xlsx
+++ b/Federated Electric Market/result_excel/test_loss/frac/frac=0.01.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.169798067597569</v>
+        <v>61.67150159295456</v>
       </c>
       <c r="C2" t="n">
-        <v>1.124406318972175</v>
+        <v>7.689280892835836</v>
       </c>
       <c r="D2" t="n">
-        <v>1.473023444347567</v>
+        <v>7.853120500345996</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.001611850837105</v>
+        <v>41.8687468210945</v>
       </c>
       <c r="C3" t="n">
-        <v>1.074214297661629</v>
+        <v>6.266663750273011</v>
       </c>
       <c r="D3" t="n">
-        <v>1.414783322928676</v>
+        <v>6.470606371978944</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.687884769269153</v>
+        <v>7.477204052380332</v>
       </c>
       <c r="C4" t="n">
-        <v>1.048167249087535</v>
+        <v>2.397793995119729</v>
       </c>
       <c r="D4" t="n">
-        <v>1.299186194996373</v>
+        <v>2.734447668612499</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7297643452223673</v>
+        <v>10.43128236144462</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6708236532971119</v>
+        <v>3.094828474207909</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8542624568728087</v>
+        <v>3.22974958184758</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6682775986792571</v>
+        <v>6.143608253901121</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6316407225593103</v>
+        <v>2.332591366003723</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8174824760686048</v>
+        <v>2.478630318119489</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.189887013554395</v>
+        <v>10.9639824596657</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8555289182149285</v>
+        <v>3.152923285494517</v>
       </c>
       <c r="D7" t="n">
-        <v>1.090819422981822</v>
+        <v>3.311190489788484</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.124136572848772</v>
+        <v>10.65252813078757</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7987865191596032</v>
+        <v>3.035812772203171</v>
       </c>
       <c r="D8" t="n">
-        <v>1.060253070190684</v>
+        <v>3.263821093563121</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.188884329098798</v>
+        <v>7.846073816034488</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8839336463513189</v>
+        <v>2.593589395348724</v>
       </c>
       <c r="D9" t="n">
-        <v>1.090359724631645</v>
+        <v>2.801084400019837</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.226053869983019</v>
+        <v>6.642758881237747</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8956986378732927</v>
+        <v>2.343013553330263</v>
       </c>
       <c r="D10" t="n">
-        <v>1.107273168636818</v>
+        <v>2.577355016531046</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8689558837922182</v>
+        <v>2.700588192499765</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7302302638422522</v>
+        <v>1.39039860873545</v>
       </c>
       <c r="D11" t="n">
-        <v>0.93217803224074</v>
+        <v>1.643346644046765</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.161944377040372</v>
+        <v>6.683040077164756</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8265567189912133</v>
+        <v>2.416537623101873</v>
       </c>
       <c r="D12" t="n">
-        <v>1.077935237869313</v>
+        <v>2.585157650350314</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8227592308071725</v>
+        <v>1.734910182151978</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7286776627280901</v>
+        <v>1.057721866683317</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9070607646719003</v>
+        <v>1.317159892401822</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9470328998229058</v>
+        <v>6.00448599968901</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7827941193847884</v>
+        <v>2.186121237108189</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9731561538740356</v>
+        <v>2.450405272539424</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.061117350655832</v>
+        <v>1.09518261932848</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8238419715822195</v>
+        <v>0.865317097505281</v>
       </c>
       <c r="D15" t="n">
-        <v>1.030105504623596</v>
+        <v>1.046509732075378</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.830809278548659</v>
+        <v>4.102144893429166</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7062761092545626</v>
+        <v>1.826414140382391</v>
       </c>
       <c r="D16" t="n">
-        <v>0.911487399007062</v>
+        <v>2.025375247560107</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4310690801338086</v>
+        <v>3.675504778151051</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5132625679942393</v>
+        <v>1.788101418297981</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6565585123458598</v>
+        <v>1.917160603118855</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9297917060590549</v>
+        <v>13.29266077657065</v>
       </c>
       <c r="C18" t="n">
-        <v>0.773089976982371</v>
+        <v>3.51021444593487</v>
       </c>
       <c r="D18" t="n">
-        <v>0.964257074674101</v>
+        <v>3.645910143787234</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9973095165494538</v>
+        <v>6.134416757276759</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7827974938906757</v>
+        <v>2.196357360117862</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9986538522178011</v>
+        <v>2.476775475750024</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6146466940426388</v>
+        <v>6.443664807812699</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6110654987505192</v>
+        <v>2.403208827732815</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7839940650557495</v>
+        <v>2.538437473685869</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7004854061696177</v>
+        <v>6.878183036399466</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6649408213964573</v>
+        <v>2.45092259654901</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8369500619329792</v>
+        <v>2.622629031410936</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6663886801371268</v>
+        <v>7.028843205057454</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6401657199778341</v>
+        <v>2.48406528012716</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8163263318900884</v>
+        <v>2.651196560999854</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3341427085611191</v>
+        <v>2.004906658681825</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4453966364097924</v>
+        <v>1.251201954718878</v>
       </c>
       <c r="D23" t="n">
-        <v>0.578050783721568</v>
+        <v>1.41594726550173</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8062432926690547</v>
+        <v>4.33486149859369</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6905008291210089</v>
+        <v>1.8426529238712</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8979105148449119</v>
+        <v>2.082033020533942</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8192497998920184</v>
+        <v>0.7791914252041093</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7378396902676837</v>
+        <v>0.6929055945358749</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9051241903142454</v>
+        <v>0.882718202601549</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.194968173989322</v>
+        <v>3.873657784268138</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8530585003791198</v>
+        <v>1.636698679759264</v>
       </c>
       <c r="D26" t="n">
-        <v>1.093145998478392</v>
+        <v>1.968161015838932</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.813841487214495</v>
+        <v>9.23670511592365</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7207826745203433</v>
+        <v>2.783573245101137</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9021316351921681</v>
+        <v>3.039194813749795</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4792600694498806</v>
+        <v>0.9580864172172223</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5530206993638681</v>
+        <v>0.8158541882672919</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6922861181981628</v>
+        <v>0.9788188888743526</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7527475498675966</v>
+        <v>5.878130729780363</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6776827117394558</v>
+        <v>2.197558909881754</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8676102522835911</v>
+        <v>2.424485662935618</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6640093638151209</v>
+        <v>6.817301950589261</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5922311086333368</v>
+        <v>2.382994432329538</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8148676971233556</v>
+        <v>2.610996352082718</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.028976123568178</v>
+        <v>9.399521590523733</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7770962465215835</v>
+        <v>2.870490898729293</v>
       </c>
       <c r="D31" t="n">
-        <v>1.014384603376933</v>
+        <v>3.065863922375508</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9824737385404285</v>
+        <v>3.273832956092016</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7856708587888268</v>
+        <v>1.574542733986316</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9911981328374406</v>
+        <v>1.809373636397971</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9810576003450907</v>
+        <v>1.395770496735686</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7886495959288456</v>
+        <v>0.9707131056091453</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9904835184621149</v>
+        <v>1.181427313352661</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6704735570886163</v>
+        <v>2.829110327760809</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6252954014826544</v>
+        <v>1.565472872686004</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8188244971229283</v>
+        <v>1.681995935714712</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.404075181341569</v>
+        <v>26.90163946620013</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9311035401421965</v>
+        <v>5.061164083833346</v>
       </c>
       <c r="D35" t="n">
-        <v>1.184936783689986</v>
+        <v>5.186679040214473</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.291975432124495</v>
+        <v>21.31007090435209</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9190760744932682</v>
+        <v>4.498063861882009</v>
       </c>
       <c r="D36" t="n">
-        <v>1.136650971989421</v>
+        <v>4.616283234849448</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8282869741139297</v>
+        <v>1.981365572218216</v>
       </c>
       <c r="C37" t="n">
-        <v>0.688318472896372</v>
+        <v>1.166283947139935</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9101027272313438</v>
+        <v>1.407609879269898</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8663345775203199</v>
+        <v>3.463283435007104</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7207461095579734</v>
+        <v>1.623242148747161</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9307709586790511</v>
+        <v>1.86098990728244</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7589284501141164</v>
+        <v>3.526955458170482</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6597048566766196</v>
+        <v>1.671489958641259</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8711649959187504</v>
+        <v>1.878019024975647</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.495217376395651</v>
+        <v>20.97664277564775</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9645791442656563</v>
+        <v>4.415784566040138</v>
       </c>
       <c r="D40" t="n">
-        <v>1.222790814651325</v>
+        <v>4.580026503814989</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5193165147678982</v>
+        <v>3.000852588663419</v>
       </c>
       <c r="C41" t="n">
-        <v>0.577113790301116</v>
+        <v>1.586275289662783</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7206361875231483</v>
+        <v>1.732296911231853</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7099062843872055</v>
+        <v>3.080919052454473</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6510284181144544</v>
+        <v>1.539922262397204</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8425593654972957</v>
+        <v>1.755254697317308</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.113114184506245</v>
+        <v>9.780476866215047</v>
       </c>
       <c r="C43" t="n">
-        <v>0.756536651450249</v>
+        <v>2.880351598640214</v>
       </c>
       <c r="D43" t="n">
-        <v>1.055042266691835</v>
+        <v>3.127375395793579</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5361403545738038</v>
+        <v>4.954915999341945</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5986904723378065</v>
+        <v>2.118884806301484</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7322160573039926</v>
+        <v>2.225964060658201</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4446832357099094</v>
+        <v>4.833342104947342</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5298627209125203</v>
+        <v>2.118696400783164</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6668457360663779</v>
+        <v>2.19848632130094</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5903203568835862</v>
+        <v>2.400371982196047</v>
       </c>
       <c r="C46" t="n">
-        <v>0.604732083812256</v>
+        <v>1.346632459943231</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7683230810561311</v>
+        <v>1.549313390568883</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6537281073521348</v>
+        <v>7.696338087541545</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6482320290974647</v>
+        <v>2.663740922551536</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8085345430791036</v>
+        <v>2.774227475810436</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2967023022947852</v>
+        <v>1.079248679162903</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4183352530639468</v>
+        <v>0.9047601100061687</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5447038666053191</v>
+        <v>1.038868942245798</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4936776092388881</v>
+        <v>3.255843880050227</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5542549543601515</v>
+        <v>1.662975958980555</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7026219532856116</v>
+        <v>1.804395710494299</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5437590668217238</v>
+        <v>3.313022130494462</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5655788607315199</v>
+        <v>1.64721354208042</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7374002080429078</v>
+        <v>1.820170906946505</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3553742582884954</v>
+        <v>3.260697828183892</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4727895247332399</v>
+        <v>1.652238770771258</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5961327522360229</v>
+        <v>1.805740243829076</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5028056214519699</v>
+        <v>2.983475069512501</v>
       </c>
       <c r="C52" t="n">
-        <v>0.549460210064571</v>
+        <v>1.576235137690142</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7090878799217837</v>
+        <v>1.727273883758016</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4479733625355173</v>
+        <v>2.013852706308683</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5267116757169471</v>
+        <v>1.249250681221073</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6693081222691962</v>
+        <v>1.419102782150991</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3051301063771254</v>
+        <v>2.690551044756128</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4425197353064067</v>
+        <v>1.533896710862851</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5523858310792605</v>
+        <v>1.640289927042207</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7357312668968331</v>
+        <v>5.441498280653782</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6742191189356117</v>
+        <v>2.220003803932685</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8577477874625111</v>
+        <v>2.332701927090939</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4608372924187653</v>
+        <v>4.11287041442983</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5349957200570526</v>
+        <v>1.892097418504366</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6788499778439749</v>
+        <v>2.028021305220887</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2729981086416411</v>
+        <v>3.656713812666258</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4152020048441288</v>
+        <v>1.813210606657594</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5224922091683675</v>
+        <v>1.9122535952813</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5160534937060794</v>
+        <v>2.954143596254792</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5793195514271789</v>
+        <v>1.555170422991424</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7183686335761601</v>
+        <v>1.718762227957896</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8071605840669062</v>
+        <v>19.76867516790209</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6785670044694901</v>
+        <v>4.34453581915298</v>
       </c>
       <c r="D59" t="n">
-        <v>0.898421161853897</v>
+        <v>4.446197832744522</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7947842088995936</v>
+        <v>2.897211894193249</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6984116078009379</v>
+        <v>1.491422934914751</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8915067071534535</v>
+        <v>1.702119823688464</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4701546321624924</v>
+        <v>4.266470398416084</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5188565656787637</v>
+        <v>1.928474520970824</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6856782278609205</v>
+        <v>2.0655436084518</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8474771035315044</v>
+        <v>7.549701676545254</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7159376087808424</v>
+        <v>2.452088615364432</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9205851962374283</v>
+        <v>2.747672046759812</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6181423652241701</v>
+        <v>1.114736014963316</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5952802490674687</v>
+        <v>0.8770935193541182</v>
       </c>
       <c r="D63" t="n">
-        <v>0.786220303238329</v>
+        <v>1.055810596159802</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4173809493342237</v>
+        <v>4.391698047414972</v>
       </c>
       <c r="C64" t="n">
-        <v>0.505634563439835</v>
+        <v>1.996897752446018</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6460502684267098</v>
+        <v>2.095637861705827</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6969751260189303</v>
+        <v>5.049754695199692</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6569335133526848</v>
+        <v>2.037494231670671</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8348503614534345</v>
+        <v>2.247165925159887</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4832061982971073</v>
+        <v>7.336926616578364</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5533709751164669</v>
+        <v>2.627987879003461</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6951303462639992</v>
+        <v>2.70867617418147</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6065529789725687</v>
+        <v>5.137477438372385</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6180016926658691</v>
+        <v>2.134386832440471</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7788151121881037</v>
+        <v>2.266600414358999</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.515625372051311</v>
+        <v>13.3098268570727</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9479416011688901</v>
+        <v>3.474945051032861</v>
       </c>
       <c r="D68" t="n">
-        <v>1.231107376328852</v>
+        <v>3.648263539969762</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8830425468898161</v>
+        <v>11.6397526502428</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7022502117720921</v>
+        <v>3.288421437386627</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9397034356060513</v>
+        <v>3.411708171904918</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.180087228330795</v>
+        <v>12.64839320038032</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8029762254928922</v>
+        <v>3.424891315235618</v>
       </c>
       <c r="D70" t="n">
-        <v>1.086318198471698</v>
+        <v>3.556457957066317</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.712384839231568</v>
+        <v>5.266781867104494</v>
       </c>
       <c r="C71" t="n">
-        <v>0.677086659691386</v>
+        <v>2.156030652760685</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8440289326981439</v>
+        <v>2.294947029258953</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3393370906198477</v>
+        <v>3.790987178059106</v>
       </c>
       <c r="C72" t="n">
-        <v>0.452649967428537</v>
+        <v>1.885573663214118</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5825264720335444</v>
+        <v>1.947045756539662</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5834307308850593</v>
+        <v>7.956137204000354</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5927621999666778</v>
+        <v>2.725120637786422</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7638263748294237</v>
+        <v>2.820662546991461</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7135138751451261</v>
+        <v>7.252737372208767</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6794037503800749</v>
+        <v>2.558395091103149</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8446975051135915</v>
+        <v>2.693090672853175</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.853753329074497</v>
+        <v>4.77291554817937</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7377576982337238</v>
+        <v>1.966884454724425</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9239877321017292</v>
+        <v>2.184700333725285</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5055034459662477</v>
+        <v>2.648440282649918</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5759138136795722</v>
+        <v>1.451838657018384</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7109876552840054</v>
+        <v>1.627402925722428</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4644932019795616</v>
+        <v>2.856771807040344</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5321345802694449</v>
+        <v>1.514073286840632</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6815373812048475</v>
+        <v>1.690198747792798</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4846676717641118</v>
+        <v>5.583237167557468</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5307099685271445</v>
+        <v>2.233739445066413</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6961807752043372</v>
+        <v>2.362887464006161</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9856408573563732</v>
+        <v>3.843705809457124</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7970257463053091</v>
+        <v>1.725517042895206</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9927944688385271</v>
+        <v>1.960537122692943</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3823489348788585</v>
+        <v>2.722914138504242</v>
       </c>
       <c r="C80" t="n">
-        <v>0.472471015258389</v>
+        <v>1.535715391409126</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6183437028698995</v>
+        <v>1.650125491744262</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8181626987232572</v>
+        <v>4.636904615421548</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6916554624555775</v>
+        <v>1.98377734408499</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9045234649931737</v>
+        <v>2.153347304877118</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7387799281222797</v>
+        <v>3.497751725873115</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6910803582385491</v>
+        <v>1.640550706693652</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8595230817856375</v>
+        <v>1.870227720325286</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6249425519208009</v>
+        <v>2.547947399121573</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6512191249499016</v>
+        <v>1.366908451279907</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7905330808516497</v>
+        <v>1.596229118617241</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7734565777919289</v>
+        <v>1.801533893760294</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7229885648679573</v>
+        <v>1.154288412362462</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8794638012970909</v>
+        <v>1.342212313220339</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6678842479197029</v>
+        <v>4.736165736678531</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6445021259852654</v>
+        <v>2.025721352124724</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8172418539940933</v>
+        <v>2.176273359823745</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8930688334468135</v>
+        <v>9.494787329032958</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7306238089805817</v>
+        <v>2.96464982688138</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9450231920153143</v>
+        <v>3.081361278563901</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.747521436691112</v>
+        <v>1.776011868081055</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6845490886406393</v>
+        <v>1.149745175879148</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8645932203592115</v>
+        <v>1.332670952666507</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5686626395982556</v>
+        <v>2.057916220117668</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6154680623541042</v>
+        <v>1.24311174318766</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7540972348432632</v>
+        <v>1.434543906653842</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4128675077048701</v>
+        <v>3.54040319796529</v>
       </c>
       <c r="C89" t="n">
-        <v>0.518913760558073</v>
+        <v>1.744977044190525</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6425476695972604</v>
+        <v>1.881595917822233</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5345446729588778</v>
+        <v>4.398394565646375</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5840091042562419</v>
+        <v>1.989513808872219</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7311256205050386</v>
+        <v>2.097234981027728</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6734792870876405</v>
+        <v>18.2516892507641</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6356206284581577</v>
+        <v>4.198871890138668</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8206578380102395</v>
+        <v>4.272199579931174</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3959537161251515</v>
+        <v>0.6700619906555049</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4788181929412015</v>
+        <v>0.6596691190386882</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6292485328748502</v>
+        <v>0.8185731431310856</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3026018784856721</v>
+        <v>1.366045536895603</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4184643193544975</v>
+        <v>1.021241185882394</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5500926090084033</v>
+        <v>1.168779507390339</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.2855779072700314</v>
+        <v>3.504886337863372</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4325590295007595</v>
+        <v>1.800750423488234</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5343948982447637</v>
+        <v>1.872134166629991</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3156015956695841</v>
+        <v>5.348768140500826</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4551819186360808</v>
+        <v>2.241308460064936</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5617842963892672</v>
+        <v>2.312740396261722</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3665093469904528</v>
+        <v>0.4210435254868276</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5014501734846086</v>
+        <v>0.5179088966375175</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6054001544354385</v>
+        <v>0.6488786677698902</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5486491247182265</v>
+        <v>1.234693750286116</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5891245341918934</v>
+        <v>0.9249238477785174</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7407085288547894</v>
+        <v>1.111167741741145</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2785762465612017</v>
+        <v>1.991149540755136</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4220354054626266</v>
+        <v>1.336270562627769</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5278032271227618</v>
+        <v>1.411080983060553</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4715355985851354</v>
+        <v>6.078287906624756</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5188701745138314</v>
+        <v>2.394458317398221</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6866844971201369</v>
+        <v>2.465418403968129</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.2661048365916362</v>
+        <v>1.180738865192164</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4150124959675852</v>
+        <v>0.954216576721966</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5158535030332121</v>
+        <v>1.086618086170189</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1859659371869579</v>
+        <v>3.789304691765052</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3403827360610576</v>
+        <v>1.890633049504005</v>
       </c>
       <c r="D101" t="n">
-        <v>0.431237680620511</v>
+        <v>1.946613647276997</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4844948674467817</v>
+        <v>2.271193759777974</v>
       </c>
       <c r="C102" t="n">
-        <v>0.532051930350971</v>
+        <v>1.365408333264169</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6960566553426393</v>
+        <v>1.507048028358079</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4025923617548261</v>
+        <v>0.7532988411764524</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5418540767027019</v>
+        <v>0.6952350516012182</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6345016641072158</v>
+        <v>0.8679279009090861</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.245670966174561</v>
+        <v>0.7169442408990495</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3959900776404739</v>
+        <v>0.7333992907943411</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4956520616062854</v>
+        <v>0.8467255995297707</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3817190216393256</v>
+        <v>0.5139230908726345</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5039401237658319</v>
+        <v>0.5530865485910961</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6178341376448259</v>
+        <v>0.7168842939224116</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.013014973472149</v>
+        <v>3.896324326672135</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7907816348696076</v>
+        <v>1.748189764086888</v>
       </c>
       <c r="D106" t="n">
-        <v>1.006486449721083</v>
+        <v>1.973910921665954</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4735206238142837</v>
+        <v>9.977500308089144</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5671334339401627</v>
+        <v>3.1251719711035</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6881283483582722</v>
+        <v>3.158718143185483</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.2176625680031802</v>
+        <v>3.427081548604178</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3767167673535786</v>
+        <v>1.813435504287667</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4665432112925663</v>
+        <v>1.851237842256953</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.3897185214601006</v>
+        <v>4.14169239650335</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5053032948604852</v>
+        <v>1.967163193689558</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6242743959671104</v>
+        <v>2.035114836195577</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.200348997337504</v>
+        <v>2.935006922886688</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3426337291737643</v>
+        <v>1.648754887925063</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4476036163141491</v>
+        <v>1.713186190373565</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3107822550262224</v>
+        <v>2.678057815434521</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4346361308389837</v>
+        <v>1.54639475030305</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5574784794287779</v>
+        <v>1.636477257842137</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6047923962132196</v>
+        <v>1.899934015685576</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6185383766948354</v>
+        <v>1.170681990947563</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7776839950861916</v>
+        <v>1.378380939974714</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.576127953460561</v>
+        <v>14.13429979917805</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9772128999851408</v>
+        <v>3.583540479559439</v>
       </c>
       <c r="D113" t="n">
-        <v>1.255439346786837</v>
+        <v>3.75956111789369</v>
       </c>
     </row>
   </sheetData>
